--- a/xlsx/nor_oda_education_tenyear.xlsx
+++ b/xlsx/nor_oda_education_tenyear.xlsx
@@ -438,7 +438,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>0.2836732859168692</v>
+        <v>0.2836732859168691</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>0.2848095956023224</v>
+        <v>0.2848095956023225</v>
       </c>
     </row>
     <row r="8">
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>0.2574094599937049</v>
+        <v>0.2573837459701277</v>
       </c>
     </row>
     <row r="11">
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>0.2931870872502745</v>
+        <v>0.2931713669243685</v>
       </c>
     </row>
     <row r="14">
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>0.2864016908025743</v>
+        <v>0.2863777843626962</v>
       </c>
     </row>
     <row r="17">
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>0.266877019604573</v>
+        <v>0.2668403725592293</v>
       </c>
     </row>
     <row r="20">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>0.3335484231931456</v>
+        <v>0.333480634758721</v>
       </c>
     </row>
     <row r="23">
@@ -711,7 +711,7 @@
         </is>
       </c>
       <c r="C25">
-        <v>0.2882723016985535</v>
+        <v>0.2882723016985536</v>
       </c>
     </row>
     <row r="26">
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="C31">
-        <v>0.2818841791928163</v>
+        <v>0.2897895160702489</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/nor_oda_education_tenyear.xlsx
+++ b/xlsx/nor_oda_education_tenyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfanen Figurdata viser data for Bistand til utdanning, 2014-2023 fordelt på øremerket langsiktig støtte til utdanning, øremerket støtte til utdanning i kriser, og multilateral kjernestøtte til utdanning (beregnet). Beløp er utbetalinger i NOK mill.</t>
+          <t>Arkfanen Figurdata viser data for Bistand til utdanning, 2015-2024 fordelt på øremerket langsiktig støtte til utdanning, øremerket støtte til utdanning i kriser, og multilateral kjernestøtte til utdanning (beregnet). Beløp er utbetalinger i NOK mill.</t>
         </is>
       </c>
     </row>
@@ -404,7 +404,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -412,12 +412,12 @@
         </is>
       </c>
       <c r="C2">
-        <v>0.141475540531</v>
+        <v>0.105499848999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -425,12 +425,12 @@
         </is>
       </c>
       <c r="C3">
-        <v>1.810130301008</v>
+        <v>2.473567395465</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -438,12 +438,12 @@
         </is>
       </c>
       <c r="C4">
-        <v>0.2836732859168691</v>
+        <v>0.2848095956023225</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -451,12 +451,12 @@
         </is>
       </c>
       <c r="C5">
-        <v>0.105499848999</v>
+        <v>0.135928947996</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -464,12 +464,12 @@
         </is>
       </c>
       <c r="C6">
-        <v>2.473567395465</v>
+        <v>3.076318933511</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -477,12 +477,12 @@
         </is>
       </c>
       <c r="C7">
-        <v>0.2848095956023225</v>
+        <v>0.2573837459701277</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -490,12 +490,12 @@
         </is>
       </c>
       <c r="C8">
-        <v>0.135928947996</v>
+        <v>0.52925443491</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -503,12 +503,12 @@
         </is>
       </c>
       <c r="C9">
-        <v>3.076318933511</v>
+        <v>3.027607245709</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -516,12 +516,12 @@
         </is>
       </c>
       <c r="C10">
-        <v>0.2573837459701277</v>
+        <v>0.2931713669243685</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -529,12 +529,12 @@
         </is>
       </c>
       <c r="C11">
-        <v>0.52925443491</v>
+        <v>0.559872706609</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -542,12 +542,12 @@
         </is>
       </c>
       <c r="C12">
-        <v>3.027607245709</v>
+        <v>2.9452627343</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -555,12 +555,12 @@
         </is>
       </c>
       <c r="C13">
-        <v>0.2931713669243685</v>
+        <v>0.2863777843626962</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -568,12 +568,12 @@
         </is>
       </c>
       <c r="C14">
-        <v>0.559872706609</v>
+        <v>0.733547555</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -581,12 +581,12 @@
         </is>
       </c>
       <c r="C15">
-        <v>2.9452627343</v>
+        <v>2.94836693132</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -594,12 +594,12 @@
         </is>
       </c>
       <c r="C16">
-        <v>0.2863777843626962</v>
+        <v>0.2668403725592293</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -607,12 +607,12 @@
         </is>
       </c>
       <c r="C17">
-        <v>0.733547555</v>
+        <v>0.23839352646</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -620,12 +620,12 @@
         </is>
       </c>
       <c r="C18">
-        <v>2.94836693132</v>
+        <v>3.099903338541</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -633,12 +633,12 @@
         </is>
       </c>
       <c r="C19">
-        <v>0.2668403725592293</v>
+        <v>0.333480634758721</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -646,12 +646,12 @@
         </is>
       </c>
       <c r="C20">
-        <v>0.23839352646</v>
+        <v>0.479535970345</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -659,12 +659,12 @@
         </is>
       </c>
       <c r="C21">
-        <v>3.099903338541</v>
+        <v>3.06828598754</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -672,12 +672,12 @@
         </is>
       </c>
       <c r="C22">
-        <v>0.333480634758721</v>
+        <v>0.2882723016985536</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -685,12 +685,12 @@
         </is>
       </c>
       <c r="C23">
-        <v>0.479535970345</v>
+        <v>0.419131098783</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -698,12 +698,12 @@
         </is>
       </c>
       <c r="C24">
-        <v>3.06828598754</v>
+        <v>2.338746213327</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -711,12 +711,12 @@
         </is>
       </c>
       <c r="C25">
-        <v>0.2882723016985536</v>
+        <v>0.2709179502172552</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -724,12 +724,12 @@
         </is>
       </c>
       <c r="C26">
-        <v>0.419131098783</v>
+        <v>0.382153405322</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -737,12 +737,12 @@
         </is>
       </c>
       <c r="C27">
-        <v>2.338746213327</v>
+        <v>2.117344279324</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -750,12 +750,12 @@
         </is>
       </c>
       <c r="C28">
-        <v>0.2709179502172552</v>
+        <v>0.2897895160702489</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -763,12 +763,12 @@
         </is>
       </c>
       <c r="C29">
-        <v>0.382153405322</v>
+        <v>0.330210000377</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -776,12 +776,12 @@
         </is>
       </c>
       <c r="C30">
-        <v>2.117344279324</v>
+        <v>2.129561098097</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="C31">
-        <v>0.2897895160702489</v>
+        <v>0.2889736003588256</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/nor_oda_education_tenyear.xlsx
+++ b/xlsx/nor_oda_education_tenyear.xlsx
@@ -408,7 +408,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Øremerket støtte til utdanning kriser</t>
+          <t>Øremerket støtte til utdanning i kriser</t>
         </is>
       </c>
       <c r="C2">
@@ -447,7 +447,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Øremerket støtte til utdanning kriser</t>
+          <t>Øremerket støtte til utdanning i kriser</t>
         </is>
       </c>
       <c r="C5">
@@ -486,7 +486,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Øremerket støtte til utdanning kriser</t>
+          <t>Øremerket støtte til utdanning i kriser</t>
         </is>
       </c>
       <c r="C8">
@@ -525,7 +525,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Øremerket støtte til utdanning kriser</t>
+          <t>Øremerket støtte til utdanning i kriser</t>
         </is>
       </c>
       <c r="C11">
@@ -564,7 +564,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Øremerket støtte til utdanning kriser</t>
+          <t>Øremerket støtte til utdanning i kriser</t>
         </is>
       </c>
       <c r="C14">
@@ -603,7 +603,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Øremerket støtte til utdanning kriser</t>
+          <t>Øremerket støtte til utdanning i kriser</t>
         </is>
       </c>
       <c r="C17">
@@ -642,7 +642,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Øremerket støtte til utdanning kriser</t>
+          <t>Øremerket støtte til utdanning i kriser</t>
         </is>
       </c>
       <c r="C20">
@@ -681,7 +681,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Øremerket støtte til utdanning kriser</t>
+          <t>Øremerket støtte til utdanning i kriser</t>
         </is>
       </c>
       <c r="C23">
@@ -720,7 +720,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Øremerket støtte til utdanning kriser</t>
+          <t>Øremerket støtte til utdanning i kriser</t>
         </is>
       </c>
       <c r="C26">
@@ -759,7 +759,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Øremerket støtte til utdanning kriser</t>
+          <t>Øremerket støtte til utdanning i kriser</t>
         </is>
       </c>
       <c r="C29">

--- a/xlsx/nor_oda_education_tenyear.xlsx
+++ b/xlsx/nor_oda_education_tenyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfanen Figurdata viser data for Bistand til utdanning, 2015-2024 fordelt på øremerket langsiktig støtte til utdanning, øremerket støtte til utdanning i kriser, og multilateral kjernestøtte til utdanning (beregnet). Beløp er utbetalinger i NOK mill.</t>
+          <t>Arkfanen Figurdata inneholder data om norsk bistand til utdanning. 2015-2024. Fordelt på øremerket langsiktig støtte til utdanning, øremerket støtte til utdanning i kriser, og multilateral kjernestøtte til utdanning (beregnet). Beløp er utbetalinger i NOK mill.</t>
         </is>
       </c>
     </row>
